--- a/SDMall/src/main/resources/테이블 수정본(0604).xlsx
+++ b/SDMall/src/main/resources/테이블 수정본(0604).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="13665" windowHeight="9840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="18480" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="상품관련 테이블 일단 최종" sheetId="4" r:id="rId1"/>
     <sheet name="SQL" sheetId="6" r:id="rId2"/>
     <sheet name="약어" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:L16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="122">
   <si>
     <t>상품명</t>
   </si>
@@ -168,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number (3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number (4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,6 +424,13 @@
   </si>
   <si>
     <t>최근본 상품테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2 (3 char)</t>
+  </si>
+  <si>
+    <t>varchar2 (3 char)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +607,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -915,8 +919,8 @@
   </sheetPr>
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -961,7 +965,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
@@ -970,7 +974,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>24</v>
@@ -979,7 +983,7 @@
         <v>39</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>26</v>
@@ -990,7 +994,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -999,10 +1003,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>25</v>
@@ -1011,10 +1015,10 @@
         <v>38</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>25</v>
@@ -1025,16 +1029,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>15</v>
@@ -1045,13 +1049,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>1</v>
@@ -1060,7 +1064,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -1071,13 +1075,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>4</v>
@@ -1086,27 +1090,27 @@
         <v>36</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>36</v>
@@ -1114,13 +1118,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>31</v>
@@ -1131,13 +1135,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>5</v>
@@ -1151,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>9</v>
@@ -1165,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
@@ -1176,7 +1180,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1193,13 +1197,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>6</v>
@@ -1210,7 +1214,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="G16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
@@ -1224,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1232,13 +1236,13 @@
         <v>30</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1248,40 +1252,40 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="C25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1303,7 @@
   </sheetPr>
   <dimension ref="B2:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1307,248 +1311,248 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="C54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="C56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1577,55 +1581,55 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1633,34 +1637,34 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
         <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
